--- a/UploadedFiles/AFDTanks.xlsx
+++ b/UploadedFiles/AFDTanks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12492" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5498" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="1875">
   <si>
     <t>coopid</t>
   </si>
@@ -5515,9 +5515,6 @@
     <t>EARL DEAN</t>
   </si>
   <si>
-    <t>ARLINGTON</t>
-  </si>
-  <si>
     <t>AUGUSTA</t>
   </si>
   <si>
@@ -5545,18 +5542,12 @@
     <t>CLAY CENTER</t>
   </si>
   <si>
-    <t>COTTONWOOD FALLS</t>
-  </si>
-  <si>
     <t>DEARBORN</t>
   </si>
   <si>
     <t>DOUGLAS</t>
   </si>
   <si>
-    <t>ENTERPRISE</t>
-  </si>
-  <si>
     <t>GALVA</t>
   </si>
   <si>
@@ -5575,18 +5566,12 @@
     <t>HAMILTON</t>
   </si>
   <si>
-    <t>HANNIBAL</t>
-  </si>
-  <si>
     <t>HAVEN</t>
   </si>
   <si>
     <t>HILLSBORO</t>
   </si>
   <si>
-    <t>JERSEY CITY</t>
-  </si>
-  <si>
     <t>KANSAS CITY</t>
   </si>
   <si>
@@ -5596,9 +5581,6 @@
     <t>LANGDON</t>
   </si>
   <si>
-    <t>LENARDVILLE</t>
-  </si>
-  <si>
     <t>LINDSBORG</t>
   </si>
   <si>
@@ -5623,9 +5605,6 @@
     <t>NEW CAMBRIA</t>
   </si>
   <si>
-    <t>NICKERSON</t>
-  </si>
-  <si>
     <t>PARTRIDGE</t>
   </si>
   <si>
@@ -5639,9 +5618,6 @@
   </si>
   <si>
     <t>ROSE HILL</t>
-  </si>
-  <si>
-    <t>ROXBURY</t>
   </si>
   <si>
     <t>SALINA</t>
@@ -12863,8 +12839,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:A106" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:A93" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A93"/>
   <tableColumns count="1">
     <tableColumn id="1" name="CITY" dataDxfId="0"/>
   </tableColumns>
@@ -13137,7 +13113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13191,13 +13167,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="M1" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="N1" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18062,13 +18038,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -45489,7 +45465,7 @@
         <v>1116</v>
       </c>
       <c r="F585" s="3" t="s">
-        <v>1867</v>
+        <v>1859</v>
       </c>
       <c r="G585">
         <v>1</v>
@@ -65941,9 +65917,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A106"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -65952,7 +65930,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -65972,12 +65950,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1823</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>602</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -65987,37 +65965,37 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1825</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1747</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>498</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1826</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>888</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>691</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -66032,82 +66010,82 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1829</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1786</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>138</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1831</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1832</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>303</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1833</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>226</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1834</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1743</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>516</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1835</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1026</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>267</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1804</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -66117,37 +66095,37 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1098</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>638</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>55</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1839</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1840</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -66157,37 +66135,37 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1420</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1842</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1843</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1818</v>
+        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>470</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>65</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -66197,47 +66175,47 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>795</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>445</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>1042</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>594</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>1848</v>
+        <v>801</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>1850</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -66247,237 +66225,172 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>1197</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>1852</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>1853</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>1854</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>801</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>1856</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>1807</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>1857</v>
+        <v>866</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>256</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>1761</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>277</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>663</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>171</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>1864</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>1865</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>1866</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>1867</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>1868</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>287</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>234</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
     </row>
   </sheetData>
